--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3359.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3359.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.230046212320692</v>
+        <v>0.7967572212219238</v>
       </c>
       <c r="B1">
-        <v>2.692247454599099</v>
+        <v>3.103760480880737</v>
       </c>
       <c r="C1">
-        <v>5.938517441246687</v>
+        <v>2.955079555511475</v>
       </c>
       <c r="D1">
-        <v>2.222039435987784</v>
+        <v>2.510106086730957</v>
       </c>
       <c r="E1">
-        <v>1.160743626032</v>
+        <v>2.154290676116943</v>
       </c>
     </row>
   </sheetData>
